--- a/CSS_GuideBook.xlsx
+++ b/CSS_GuideBook.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alireza\Desktop\GuideBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566ECB67-A941-409B-9CC2-BA14FDDAB7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16328A3F-4373-4C4D-B139-F0FC97EA0A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="266">
   <si>
     <t>syntax</t>
   </si>
@@ -361,13 +370,508 @@
   </si>
   <si>
     <t xml:space="preserve">font-family : Shabnam , arial ; </t>
+  </si>
+  <si>
+    <t>Pseudo classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شبه کلاسها </t>
+  </si>
+  <si>
+    <t>::hover</t>
+  </si>
+  <si>
+    <t>هنگامی که موس روش میره فعال میشه</t>
+  </si>
+  <si>
+    <t>::active</t>
+  </si>
+  <si>
+    <t>هنگام کلیک فعال میشه</t>
+  </si>
+  <si>
+    <t>::visited</t>
+  </si>
+  <si>
+    <t>پس از کلیک فعال میشه</t>
+  </si>
+  <si>
+    <t>::link</t>
+  </si>
+  <si>
+    <t>::focus</t>
+  </si>
+  <si>
+    <t>هنگام فوکوس فعال میشه</t>
+  </si>
+  <si>
+    <t>lists style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استایل لیست ها </t>
+  </si>
+  <si>
+    <t>list-style-image:url("src")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک عکس رو از سورس میگیره و به عنوان علامت لیست استفاده میکنه </t>
+  </si>
+  <si>
+    <t>icongram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سایتی برای دانلود لیست ایکون های رایگان </t>
+  </si>
+  <si>
+    <t>list-style-position</t>
+  </si>
+  <si>
+    <t>پوزیشن دهی به لیست استایل برای مثال : inside</t>
+  </si>
+  <si>
+    <t>list-style : none;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیر فعال کردن لیست استایل </t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>inline</t>
+  </si>
+  <si>
+    <t>عناصری که این دیسپلی را دارند نمیشه بهشون عرض و طول داد و به اندازه محتوای داخلشون جا میگیرن و با مارجین و پدینگ تنظیم میشن</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>عناصری که این دیسپلی رو دارند کل لاین رو اشغال میکنن حتی اگه محتوای داخلشون کم باشه ، طول عرض ثابت میگیرند .</t>
+  </si>
+  <si>
+    <t>inline-block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترکیبی از دو حالت بالا </t>
+  </si>
+  <si>
+    <t>flex</t>
+  </si>
+  <si>
+    <t>قابل تنظیم با فلکس باکس</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>تنظیم گرید برای نظم دهی به عناصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پراپرتی پوزیشن تایپ پوزیشن دهی به عنصر را تعیین میکند </t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حالت دیفالت پوزیشن و به معنای ثابت </t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>پوزیشن دهی نسبی نسبت به چیزی</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sticky </t>
+  </si>
+  <si>
+    <t>بار رسیدن به یک جای مشخص به همانجا میچسبد .</t>
+  </si>
+  <si>
+    <t>پوزیشن دهی نسبت به والد</t>
+  </si>
+  <si>
+    <t>پوزیشن دهی ثابت در صفحه بدون در نظر گرفتن سایر عناصر و نسبت به viewport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معمولا parent(relative) : child(absolute) </t>
+  </si>
+  <si>
+    <t>position : absolute ;
+inset : 0;</t>
+  </si>
+  <si>
+    <t>position : absolute ; 
+top = 0 ;
+right = 0 ;
+left = 0 ;
+bottom = 0 ;</t>
+  </si>
+  <si>
+    <t>z-index</t>
+  </si>
+  <si>
+    <t>specefies stack order of element
+روی المان هایی تاثیر میزاره که پوزیشنی به غیر از static گرفته باشن</t>
+  </si>
+  <si>
+    <t>:root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اشاره به ریشه </t>
+  </si>
+  <si>
+    <t>:checked</t>
+  </si>
+  <si>
+    <t>first-chiled , last-child , nth-child():</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>انتخاب فرزندان زوج</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتخاب فرزندان فرد </t>
+  </si>
+  <si>
+    <t>بجز</t>
+  </si>
+  <si>
+    <t>not()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلک کردن فرزندان یک کلاس </t>
+  </si>
+  <si>
+    <t>Pseudo elements</t>
+  </si>
+  <si>
+    <t>::after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last child of the selected element </t>
+  </si>
+  <si>
+    <t>::before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first child of the selected element </t>
+  </si>
+  <si>
+    <t>::marker(ul/ol)</t>
+  </si>
+  <si>
+    <t>::first-letter</t>
+  </si>
+  <si>
+    <t>::first-line</t>
+  </si>
+  <si>
+    <t>::selection</t>
+  </si>
+  <si>
+    <t>css opacity / transparency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعیین میزان شفافیت یک عنصر </t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>شفافیت رنگ در  سیستم rgba</t>
+  </si>
+  <si>
+    <t>opacity</t>
+  </si>
+  <si>
+    <t>شفافیت کل عنصر</t>
+  </si>
+  <si>
+    <t>CSS [attribute] Selector</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC143C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[attribute]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> selector is used to select elements with a specified attribute.</t>
+    </r>
+  </si>
+  <si>
+    <t>CSS [attribute="value"] Selector</t>
+  </si>
+  <si>
+    <t>selector is used to select elements with a specified attribute and value.</t>
+  </si>
+  <si>
+    <t>[attribute~="value"]</t>
+  </si>
+  <si>
+    <t>selector is used to select elements with an attribute value containing a specified word.</t>
+  </si>
+  <si>
+    <t>[attribute|="value"]</t>
+  </si>
+  <si>
+    <t>انتخابگر برای انتخاب عناصر با ویژگی مشخص شده استفاده می شود که مقدار آنها می تواند دقیقاً مقدار مشخص شده 
+یا مقدار مشخص شده به دنبال خط فاصله (-) باشد.</t>
+  </si>
+  <si>
+    <t>[attribute^="value"]</t>
+  </si>
+  <si>
+    <t>selector is used to select elements with the specified attribute, whose value starts with the specified value.</t>
+  </si>
+  <si>
+    <t>[attribute$="value"]</t>
+  </si>
+  <si>
+    <t> selector is used to select elements whose attribute value ends with a specified value.</t>
+  </si>
+  <si>
+    <t>[attribute*="value"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selector is used to select elements whose attribute value contains a specified value.
+Note: The value does not have to be a whole word!  </t>
+  </si>
+  <si>
+    <t>css specify</t>
+  </si>
+  <si>
+    <t>ارجهیت css</t>
+  </si>
+  <si>
+    <t>inline css</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>class,pseudo classes , attribute selectors</t>
+  </si>
+  <si>
+    <t>Elements &amp; pseudo elements</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میتوان با استفاده از !important اولویت بندی رو تغییر داد </t>
+  </si>
+  <si>
+    <t>Math fnc in css</t>
+  </si>
+  <si>
+    <t>تابع های ریاضی در css</t>
+  </si>
+  <si>
+    <t>calc()</t>
+  </si>
+  <si>
+    <t>تابع محاسباتی</t>
+  </si>
+  <si>
+    <t>min()</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>clamp(min , normal , max )</t>
+  </si>
+  <si>
+    <t>minmax()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient </t>
+  </si>
+  <si>
+    <t>linear gradient</t>
+  </si>
+  <si>
+    <t>گردینت خطی</t>
+  </si>
+  <si>
+    <t>radial gradient</t>
+  </si>
+  <si>
+    <t>گردینت شعاعی</t>
+  </si>
+  <si>
+    <t>conic gradient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syntax of linear gradient </t>
+  </si>
+  <si>
+    <t>directions : 
+1.top to bottom(default)
+2.left to right(to right)
+3.diagonal(to bottom right)</t>
+  </si>
+  <si>
+    <t>example syntax of radial gradient</t>
+  </si>
+  <si>
+    <t>background-image: radial-gradient( circle(optional), red 5%, yellow 15%, green 60%)</t>
+  </si>
+  <si>
+    <t>text effects</t>
+  </si>
+  <si>
+    <t>white-space : nowrap</t>
+  </si>
+  <si>
+    <t>بدون شکستن متن ادامه میده</t>
+  </si>
+  <si>
+    <t>text-overflow : ellipsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بعد از سر ریز شدن متن سه نقطه میزاره </t>
+  </si>
+  <si>
+    <t xml:space="preserve">writing mode : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">حالت افقی و عمودی نوشتن رو مشخص میکنه </t>
+  </si>
+  <si>
+    <t>css transitions</t>
+  </si>
+  <si>
+    <t>انتقال CSS به شما این امکان را می دهد که مقادیر ویژگی را به آرامی، در مدت زمان معین تغییر دهید.</t>
+  </si>
+  <si>
+    <t>transition syntax</t>
+  </si>
+  <si>
+    <t>transition : [tr-property] [tr-duration] [tr-timing-func] [ tr-delay]</t>
+  </si>
+  <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>ease-in</t>
+  </si>
+  <si>
+    <t>ease-out</t>
+  </si>
+  <si>
+    <t>ease-in-out</t>
+  </si>
+  <si>
+    <t>cubic-bezier(n,n,n,n)</t>
+  </si>
+  <si>
+    <t>یک اثر گذار را با شروع آهسته، سپس سریع و سپس پایان آهسته مشخص می کند (این پیش فرض است)</t>
+  </si>
+  <si>
+    <t>یک اثر گذار را با همان سرعت از ابتدا تا انتها مشخص می کند</t>
+  </si>
+  <si>
+    <t>یک اثر گذار با شروع آهسته را مشخص می کند</t>
+  </si>
+  <si>
+    <t>یک اثر گذار با پایان کند را مشخص می کند</t>
+  </si>
+  <si>
+    <t>یک اثر گذار با شروع و پایان آهسته را مشخص می کند</t>
+  </si>
+  <si>
+    <t>به شما امکان می دهد مقادیر خود را در یک تابع مکعب-بیزیر تعریف کنید</t>
+  </si>
+  <si>
+    <t>css transform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allows you to move , rotate , scale and skew elements . </t>
+  </si>
+  <si>
+    <t>Object-Fit</t>
+  </si>
+  <si>
+    <t>تگی مختص تگ img و video</t>
+  </si>
+  <si>
+    <t>object-fit : contain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نسبت ابعاد اون تصویر رو حفظ میکنه ولی کل فضا رو نمیگیره </t>
+  </si>
+  <si>
+    <t xml:space="preserve">object-fit : cover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نسبت ابعاد اون تصویر حفظ میشه و به قدری زوم میشه تا کل فضا رو بگیره </t>
+  </si>
+  <si>
+    <t xml:space="preserve">object-position </t>
+  </si>
+  <si>
+    <t>css variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعریف کردن متغیر در css برای یک پراپرتی . مرور بیشتر از w3school </t>
+  </si>
+  <si>
+    <t>css media queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهت ریسپانسیو سازی سایت </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @media screen and (if statement ) {
+در صورت درست بودن شرط این دستورات اجرا میشود 
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیلتر بلور کردن بک گراند </t>
+  </si>
+  <si>
+    <t>backdrop-filter : blur(x px)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +884,26 @@
       <color theme="1"/>
       <name val="Shabnam"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDC143C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -405,10 +929,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,8 +942,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -697,16 +1232,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="98.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="107.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1174,8 +1709,735 @@
         <v>111</v>
       </c>
     </row>
+    <row r="70" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="86.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>2</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>3</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="69" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A84">
+    <sortCondition ref="A84"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B176" r:id="rId1" display="#@ media screen and (if statement ) {_x000a_در صورت درست بودن شرط این دستورات اجرا میشود _x000a_}" xr:uid="{63FD2A18-A1DE-4943-8A0F-A4DF7E984E81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>